--- a/S_PM Tasks/S_PM07/S_PM07.xlsx
+++ b/S_PM Tasks/S_PM07/S_PM07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khaled\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sprints Tasks\task1\S_PM Tasks\S_PM07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFBB87C-1FB8-4F91-9F7C-AF7D67D02DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46695964-99F4-454C-A4C7-B0D23013F91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,12 +95,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -177,25 +177,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -255,6 +236,81 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.02"/>
+                  <c:y val="7.9065588499550768E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A9ED-4ECE-96C8-6375F54AE1F1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10222222222222223"/>
+                  <c:y val="-3.2345013477088978E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A9ED-4ECE-96C8-6375F54AE1F1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
@@ -350,6 +406,60 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.8888888888888889E-3"/>
+                  <c:y val="-6.828391734052118E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A9ED-4ECE-96C8-6375F54AE1F1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
@@ -370,10 +480,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -442,6 +552,60 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1022222222222223"/>
+                  <c:y val="1.078167115902965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A9ED-4ECE-96C8-6375F54AE1F1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
@@ -462,10 +626,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -558,25 +722,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -627,8 +772,8 @@
                 <a:gsLst>
                   <a:gs pos="100000">
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="76000"/>
+                      <a:lumOff val="24000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="0">
@@ -675,25 +820,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -805,595 +931,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1713,7 +1250,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,60 +1329,60 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
